--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/ALASKA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/ALASKA_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -488,7 +488,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -545,7 +545,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -576,12 +576,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C15">
@@ -643,7 +643,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C19">
@@ -713,7 +713,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C24">
@@ -739,7 +739,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C26">
@@ -778,7 +778,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C42">
@@ -1055,12 +1055,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C48">
@@ -1073,7 +1073,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C49">
@@ -1169,7 +1169,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C56">
@@ -1177,41 +1177,6 @@
       </c>
       <c r="D56">
         <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/ALASKA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/ALASKA_2024.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Galeana</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -592,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -623,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -654,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>San Salvador</t>
@@ -667,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -698,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Jalostotitlán</t>
@@ -711,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -724,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -737,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Valle De Guadalupe</t>
@@ -750,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -763,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -794,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Lagunillas</t>
@@ -807,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -820,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -833,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -846,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -859,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Ziracuaretiro</t>
@@ -872,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -903,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -916,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -947,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -978,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1009,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1040,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1071,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -1084,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -1097,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1128,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -1141,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -1154,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
